--- a/Saved_file/EM003/2026_10/sap_data.xlsx
+++ b/Saved_file/EM003/2026_10/sap_data.xlsx
@@ -497,24 +497,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST2743</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18358052</v>
+        <v>39341424</v>
       </c>
       <c r="E2" t="n">
-        <v>4240769</v>
+        <v>7848089</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,12 +524,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST5678</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35621538</v>
+        <v>33178844</v>
       </c>
       <c r="E3" t="n">
-        <v>5603716</v>
+        <v>5826074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST7826</t>
+          <t>CUST9175</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24324047</v>
+        <v>16161649</v>
       </c>
       <c r="E4" t="n">
-        <v>6019458</v>
+        <v>3095883</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST5641</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28053993</v>
+        <v>33865307</v>
       </c>
       <c r="E5" t="n">
-        <v>6116017</v>
+        <v>5662449</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST2718</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15858350</v>
+        <v>36090732</v>
       </c>
       <c r="E6" t="n">
-        <v>3416978</v>
+        <v>6822087</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST2575</t>
+          <t>CUST9366</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27750582</v>
+        <v>24945727</v>
       </c>
       <c r="E7" t="n">
-        <v>4433743</v>
+        <v>5074928</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1105</t>
+          <t>CUST5188</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34783446</v>
+        <v>21111649</v>
       </c>
       <c r="E8" t="n">
-        <v>5555952</v>
+        <v>4999688</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4722</t>
+          <t>CUST1944</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37380321</v>
+        <v>19190650</v>
       </c>
       <c r="E9" t="n">
-        <v>7593600</v>
+        <v>4264943</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST2243</t>
+          <t>CUST9175</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36093879</v>
+        <v>33228230</v>
       </c>
       <c r="E10" t="n">
-        <v>7049401</v>
+        <v>6290415</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST5933</t>
+          <t>CUST6648</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33783250</v>
+        <v>30752488</v>
       </c>
       <c r="E11" t="n">
-        <v>5727530</v>
+        <v>4821470</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST5700</t>
+          <t>CUST2604</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22385241</v>
+        <v>39652731</v>
       </c>
       <c r="E12" t="n">
-        <v>3455343</v>
+        <v>8141557</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST3043</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25063958</v>
+        <v>33938999</v>
       </c>
       <c r="E13" t="n">
-        <v>4250561</v>
+        <v>6431671</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST3779</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37400619</v>
+        <v>17289609</v>
       </c>
       <c r="E14" t="n">
-        <v>7393481</v>
+        <v>2607177</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST9029</t>
+          <t>CUST3043</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27966849</v>
+        <v>22071880</v>
       </c>
       <c r="E15" t="n">
-        <v>4691185</v>
+        <v>4717556</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST3495</t>
+          <t>CUST7211</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27713774</v>
+        <v>18398616</v>
       </c>
       <c r="E16" t="n">
-        <v>5149856</v>
+        <v>3422153</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST5700</t>
+          <t>CUST9366</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24459664</v>
+        <v>28085870</v>
       </c>
       <c r="E17" t="n">
-        <v>5089423</v>
+        <v>6698711</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1356,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4144</t>
+          <t>CUST6648</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15591769</v>
+        <v>22441715</v>
       </c>
       <c r="E18" t="n">
-        <v>2504567</v>
+        <v>5549257</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>30</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33509808</v>
+        <v>38877090</v>
       </c>
       <c r="E19" t="n">
-        <v>7893428</v>
+        <v>8120383</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST8801</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21880103</v>
+        <v>32633853</v>
       </c>
       <c r="E20" t="n">
-        <v>3790880</v>
+        <v>7966827</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST9119</t>
+          <t>CUST4455</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18543306</v>
+        <v>16628266</v>
       </c>
       <c r="E21" t="n">
-        <v>2882467</v>
+        <v>2748571</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5597</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28565419</v>
+        <v>36093101</v>
       </c>
       <c r="E22" t="n">
-        <v>5492554</v>
+        <v>8963100</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST4144</t>
+          <t>CUST6691</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15919161</v>
+        <v>24313371</v>
       </c>
       <c r="E23" t="n">
-        <v>2550562</v>
+        <v>4335886</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST4722</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17041518</v>
+        <v>16934501</v>
       </c>
       <c r="E24" t="n">
-        <v>3195499</v>
+        <v>3122935</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST9029</t>
+          <t>CUST8551</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20776441</v>
+        <v>19307796</v>
       </c>
       <c r="E25" t="n">
-        <v>4065551</v>
+        <v>4204140</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST2396</t>
+          <t>CUST7444</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23529440</v>
+        <v>15913979</v>
       </c>
       <c r="E26" t="n">
-        <v>5202747</v>
+        <v>2614830</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1825,12 +1825,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST4195</t>
+          <t>CUST5188</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19204972</v>
+        <v>34286397</v>
       </c>
       <c r="E27" t="n">
-        <v>4214355</v>
+        <v>6808446</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST7826</t>
+          <t>CUST3043</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37184722</v>
+        <v>16978152</v>
       </c>
       <c r="E28" t="n">
-        <v>7905840</v>
+        <v>3729312</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST8739</t>
+          <t>CUST3861</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38861444</v>
+        <v>20256623</v>
       </c>
       <c r="E29" t="n">
-        <v>9237690</v>
+        <v>3943554</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST2747</t>
+          <t>CUST9366</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15707051</v>
+        <v>15672045</v>
       </c>
       <c r="E30" t="n">
-        <v>3577131</v>
+        <v>3703593</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7154</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16751500</v>
+        <v>30773060</v>
       </c>
       <c r="E31" t="n">
-        <v>3169725</v>
+        <v>5548313</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7470</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19188413</v>
+        <v>16792671</v>
       </c>
       <c r="E32" t="n">
-        <v>4354078</v>
+        <v>3858984</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST8739</t>
+          <t>CUST5694</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28483541</v>
+        <v>31761581</v>
       </c>
       <c r="E33" t="n">
-        <v>6113824</v>
+        <v>6718912</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3232</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>27566397</v>
+        <v>23530452</v>
       </c>
       <c r="E34" t="n">
-        <v>5324917</v>
+        <v>3758831</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST1291</t>
+          <t>CUST6383</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>35903492</v>
+        <v>30267721</v>
       </c>
       <c r="E35" t="n">
-        <v>8239672</v>
+        <v>6819456</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST1105</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22937409</v>
+        <v>25608157</v>
       </c>
       <c r="E36" t="n">
-        <v>4611572</v>
+        <v>5104338</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5597</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>24057789</v>
+        <v>27433445</v>
       </c>
       <c r="E37" t="n">
-        <v>5347595</v>
+        <v>5198943</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST4195</t>
+          <t>CUST4093</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25286001</v>
+        <v>15754945</v>
       </c>
       <c r="E38" t="n">
-        <v>5779680</v>
+        <v>3376300</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST7268</t>
+          <t>CUST6648</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>37492150</v>
+        <v>39469168</v>
       </c>
       <c r="E39" t="n">
-        <v>7727867</v>
+        <v>6431193</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST2575</t>
+          <t>CUST5678</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>37997685</v>
+        <v>23103088</v>
       </c>
       <c r="E40" t="n">
-        <v>7836114</v>
+        <v>3821424</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4288</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21442157</v>
+        <v>31540023</v>
       </c>
       <c r="E41" t="n">
-        <v>4986575</v>
+        <v>7856660</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST1291</t>
+          <t>CUST6648</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18930182</v>
+        <v>34964150</v>
       </c>
       <c r="E42" t="n">
-        <v>3380789</v>
+        <v>7272527</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2747</t>
+          <t>CUST7444</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37914633</v>
+        <v>28948635</v>
       </c>
       <c r="E43" t="n">
-        <v>6191065</v>
+        <v>4743744</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST3779</t>
+          <t>CUST2373</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19049209</v>
+        <v>23382564</v>
       </c>
       <c r="E44" t="n">
-        <v>3414181</v>
+        <v>5428407</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2797,12 +2797,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST8739</t>
+          <t>CUST5716</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36446434</v>
+        <v>26050050</v>
       </c>
       <c r="E45" t="n">
-        <v>7216255</v>
+        <v>4735261</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9506</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>38350205</v>
+        <v>34862127</v>
       </c>
       <c r="E46" t="n">
-        <v>7600179</v>
+        <v>8618986</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>34366071</v>
+        <v>19324789</v>
       </c>
       <c r="E47" t="n">
-        <v>8548798</v>
+        <v>3694088</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST2243</t>
+          <t>CUST5851</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30059245</v>
+        <v>25552878</v>
       </c>
       <c r="E48" t="n">
-        <v>4557539</v>
+        <v>5052910</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3048</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20237389</v>
+        <v>36110233</v>
       </c>
       <c r="E49" t="n">
-        <v>4470447</v>
+        <v>7989038</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST2575</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>22831653</v>
+        <v>35936223</v>
       </c>
       <c r="E50" t="n">
-        <v>3457916</v>
+        <v>8572061</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24325238</v>
+        <v>18647399</v>
       </c>
       <c r="E51" t="n">
-        <v>5369978</v>
+        <v>3452911</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST2575</t>
+          <t>CUST8471</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>38400065</v>
+        <v>36064516</v>
       </c>
       <c r="E52" t="n">
-        <v>6417300</v>
+        <v>8620666</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST9029</t>
+          <t>CUST2221</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30550232</v>
+        <v>24645458</v>
       </c>
       <c r="E53" t="n">
-        <v>6667621</v>
+        <v>5228406</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1291</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30937158</v>
+        <v>28909588</v>
       </c>
       <c r="E54" t="n">
-        <v>5510085</v>
+        <v>4356295</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5112</t>
+          <t>CUST9366</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>33369207</v>
+        <v>37440374</v>
       </c>
       <c r="E55" t="n">
-        <v>7273785</v>
+        <v>7201473</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST2718</t>
+          <t>CUST8551</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29798182</v>
+        <v>35621739</v>
       </c>
       <c r="E56" t="n">
-        <v>4771309</v>
+        <v>8098266</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST6052</t>
+          <t>CUST6383</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>18887553</v>
+        <v>19193303</v>
       </c>
       <c r="E57" t="n">
-        <v>3985798</v>
+        <v>4673880</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9898</t>
+          <t>CUST9175</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>26797068</v>
+        <v>35205484</v>
       </c>
       <c r="E58" t="n">
-        <v>5033960</v>
+        <v>5749579</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST6974</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23670766</v>
+        <v>22100301</v>
       </c>
       <c r="E59" t="n">
-        <v>4491931</v>
+        <v>5189820</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST2743</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>37814315</v>
+        <v>38442503</v>
       </c>
       <c r="E60" t="n">
-        <v>8266164</v>
+        <v>8205544</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST3043</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>15838102</v>
+        <v>29226705</v>
       </c>
       <c r="E61" t="n">
-        <v>2830148</v>
+        <v>6485405</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2575</t>
+          <t>CUST6648</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>23296761</v>
+        <v>20313615</v>
       </c>
       <c r="E62" t="n">
-        <v>4671303</v>
+        <v>4119917</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST9898</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25205868</v>
+        <v>28530658</v>
       </c>
       <c r="E63" t="n">
-        <v>5927497</v>
+        <v>5396196</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST3048</t>
+          <t>CUST2373</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35716172</v>
+        <v>31018278</v>
       </c>
       <c r="E64" t="n">
-        <v>5921446</v>
+        <v>6792424</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3899,20 +3899,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST6999</t>
+          <t>CUST4026</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>29315777</v>
+        <v>21529028</v>
       </c>
       <c r="E65" t="n">
-        <v>4689657</v>
+        <v>3506646</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST9029</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>23467109</v>
+        <v>29485306</v>
       </c>
       <c r="E66" t="n">
-        <v>4823818</v>
+        <v>5046829</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST9029</t>
+          <t>CUST2240</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>22089970</v>
+        <v>24637037</v>
       </c>
       <c r="E67" t="n">
-        <v>4810353</v>
+        <v>4722535</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,17 +4034,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST6078</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21585622</v>
+        <v>36863251</v>
       </c>
       <c r="E68" t="n">
-        <v>3280744</v>
+        <v>6983048</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST9699</t>
+          <t>CUST9142</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>37707342</v>
+        <v>34042640</v>
       </c>
       <c r="E69" t="n">
-        <v>9361415</v>
+        <v>7252616</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST4288</t>
+          <t>CUST6449</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30902616</v>
+        <v>37405210</v>
       </c>
       <c r="E70" t="n">
-        <v>4804862</v>
+        <v>6148935</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST7826</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>26670231</v>
+        <v>19476944</v>
       </c>
       <c r="E71" t="n">
-        <v>5920351</v>
+        <v>3789324</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST7470</t>
+          <t>CUST2221</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>33931620</v>
+        <v>37306629</v>
       </c>
       <c r="E72" t="n">
-        <v>8171638</v>
+        <v>6436697</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST1819</t>
+          <t>CUST2130</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>34117875</v>
+        <v>21876433</v>
       </c>
       <c r="E73" t="n">
-        <v>5986552</v>
+        <v>5416740</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>34993815</v>
+        <v>18197306</v>
       </c>
       <c r="E74" t="n">
-        <v>8493320</v>
+        <v>3799177</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4417,12 +4417,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST2243</t>
+          <t>CUST2604</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>30867751</v>
+        <v>17772272</v>
       </c>
       <c r="E75" t="n">
-        <v>6149272</v>
+        <v>2974750</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST4204</t>
+          <t>CUST2557</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>30113563</v>
+        <v>35077823</v>
       </c>
       <c r="E76" t="n">
-        <v>6639011</v>
+        <v>8191953</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST7268</t>
+          <t>CUST2557</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>34998749</v>
+        <v>32086485</v>
       </c>
       <c r="E77" t="n">
-        <v>5855189</v>
+        <v>7324876</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST6999</t>
+          <t>CUST8529</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>32379649</v>
+        <v>30776199</v>
       </c>
       <c r="E78" t="n">
-        <v>6296964</v>
+        <v>5110032</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST1105</t>
+          <t>CUST7211</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26139836</v>
+        <v>17134857</v>
       </c>
       <c r="E79" t="n">
-        <v>5573970</v>
+        <v>4001365</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,12 +4682,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST1819</t>
+          <t>CUST5959</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16189410</v>
+        <v>18612365</v>
       </c>
       <c r="E80" t="n">
-        <v>2925199</v>
+        <v>3929862</v>
       </c>
       <c r="F80" t="n">
         <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST6078</t>
+          <t>CUST2743</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>16522417</v>
+        <v>26667284</v>
       </c>
       <c r="E81" t="n">
-        <v>3346801</v>
+        <v>4045237</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4795,12 +4795,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6416</t>
+          <t>CUST2743</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>32999952</v>
+        <v>32736695</v>
       </c>
       <c r="E82" t="n">
-        <v>5627937</v>
+        <v>5567119</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-18</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST7154</t>
+          <t>CUST2130</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21530997</v>
+        <v>19087372</v>
       </c>
       <c r="E83" t="n">
-        <v>4522627</v>
+        <v>3081895</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST5112</t>
+          <t>CUST3170</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36902531</v>
+        <v>16576529</v>
       </c>
       <c r="E84" t="n">
-        <v>6041687</v>
+        <v>3015794</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7826</t>
+          <t>CUST3194</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>36671326</v>
+        <v>26284374</v>
       </c>
       <c r="E85" t="n">
-        <v>9020754</v>
+        <v>5005521</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST2958</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>33669199</v>
+        <v>36981419</v>
       </c>
       <c r="E86" t="n">
-        <v>6091654</v>
+        <v>6929313</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST2718</t>
+          <t>CUST9434</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>38842439</v>
+        <v>17483559</v>
       </c>
       <c r="E87" t="n">
-        <v>8730351</v>
+        <v>4339843</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST5879</t>
+          <t>CUST6688</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>39543131</v>
+        <v>39749163</v>
       </c>
       <c r="E88" t="n">
-        <v>9293358</v>
+        <v>8975265</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1517</t>
+          <t>CUST9883</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>19080826</v>
+        <v>36238928</v>
       </c>
       <c r="E89" t="n">
-        <v>4201839</v>
+        <v>6968128</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2747</t>
+          <t>CUST7211</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>23872889</v>
+        <v>39388499</v>
       </c>
       <c r="E90" t="n">
-        <v>4078397</v>
+        <v>6006187</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST7268</t>
+          <t>CUST8649</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>25953722</v>
+        <v>34388556</v>
       </c>
       <c r="E91" t="n">
-        <v>6104781</v>
+        <v>8149303</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.7</v>
+        <v>83.8</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>8827141</v>
+        <v>6707733</v>
       </c>
       <c r="E2" t="n">
-        <v>2404747</v>
+        <v>804371</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>10068082</v>
+        <v>9851832</v>
       </c>
       <c r="E3" t="n">
-        <v>2547864</v>
+        <v>2347928</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2820857</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>491780</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4946175</v>
+        <v>1026930</v>
       </c>
       <c r="E5" t="n">
-        <v>1259936</v>
+        <v>227818</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.3</v>
+        <v>88</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>12895503</v>
+        <v>11355437</v>
       </c>
       <c r="E6" t="n">
-        <v>2987802</v>
+        <v>2303241</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4464722</v>
+        <v>7231665</v>
       </c>
       <c r="E7" t="n">
-        <v>871401</v>
+        <v>978659</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>17219581</v>
+        <v>15155573</v>
       </c>
       <c r="E8" t="n">
-        <v>2475321</v>
+        <v>2143578</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.2</v>
+        <v>84</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>16246508</v>
+        <v>6621510</v>
       </c>
       <c r="E9" t="n">
-        <v>2883916</v>
+        <v>1292930</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.2</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>4500186</v>
+        <v>11149816</v>
       </c>
       <c r="E10" t="n">
-        <v>1107214</v>
+        <v>1561657</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1688885</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>447609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>11379528</v>
+        <v>6230784</v>
       </c>
       <c r="E13" t="n">
-        <v>3245434</v>
+        <v>1728833</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.5</v>
+        <v>76.2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>8723614</v>
+        <v>13806241</v>
       </c>
       <c r="E14" t="n">
-        <v>1318289</v>
+        <v>1683314</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.7</v>
+        <v>82.8</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>11079140</v>
+        <v>5822632</v>
       </c>
       <c r="E15" t="n">
-        <v>1402594</v>
+        <v>1159418</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.7</v>
+        <v>80.7</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>10881213</v>
+        <v>18872790</v>
       </c>
       <c r="E16" t="n">
-        <v>2579069</v>
+        <v>5503394</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.2</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7219874</v>
+        <v>7291121</v>
       </c>
       <c r="E17" t="n">
-        <v>1294607</v>
+        <v>961015</v>
       </c>
     </row>
     <row r="18">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2541594</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>482454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>10740695</v>
+        <v>13053623</v>
       </c>
       <c r="E20" t="n">
-        <v>2104786</v>
+        <v>1689149</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>16377476</v>
+        <v>8645370</v>
       </c>
       <c r="E21" t="n">
-        <v>2406497</v>
+        <v>1470830</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>5149145</v>
+        <v>10788035</v>
       </c>
       <c r="E22" t="n">
-        <v>1391017</v>
+        <v>1761614</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>8220336</v>
+        <v>9425906</v>
       </c>
       <c r="E23" t="n">
-        <v>1132981</v>
+        <v>1079140</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.7</v>
+        <v>86.2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>6577309</v>
+        <v>9790008</v>
       </c>
       <c r="E24" t="n">
-        <v>1438165</v>
+        <v>1098969</v>
       </c>
     </row>
     <row r="25">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8044272</v>
+        <v>1067225</v>
       </c>
       <c r="E26" t="n">
-        <v>1116455</v>
+        <v>273976</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.59999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>10575298</v>
+        <v>18202177</v>
       </c>
       <c r="E27" t="n">
-        <v>3155033</v>
+        <v>4986775</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.09999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>16502903</v>
+        <v>12998330</v>
       </c>
       <c r="E28" t="n">
-        <v>3689050</v>
+        <v>3130614</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3152947</v>
+        <v>11829877</v>
       </c>
       <c r="E29" t="n">
-        <v>392264</v>
+        <v>2814371</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>4735823</v>
+        <v>13431681</v>
       </c>
       <c r="E30" t="n">
-        <v>1252056</v>
+        <v>3795044</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82</v>
+        <v>86.2</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>4544116</v>
+        <v>8041345</v>
       </c>
       <c r="E31" t="n">
-        <v>1120469</v>
+        <v>1219036</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2316321</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>640860</v>
       </c>
     </row>
   </sheetData>
